--- a/biology/Microbiologie/Pseudomonas_umsongensis/Pseudomonas_umsongensis.xlsx
+++ b/biology/Microbiologie/Pseudomonas_umsongensis/Pseudomonas_umsongensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudomonas umsongensis est une bactérie à Gram négatif non sporulante découverte en 2003 dans la région d'Umsong en Corée. Elle appartient au genre Pseudomonas du phylum des Proteobacteria et la souche-type est dénommée LMG 21317[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudomonas umsongensis est une bactérie à Gram négatif non sporulante découverte en 2003 dans la région d'Umsong en Corée. Elle appartient au genre Pseudomonas du phylum des Proteobacteria et la souche-type est dénommée LMG 21317.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Pseudomonas provient de l'adjectif grec pseudês qui veut dire "faux" et du nom féminin grec monas qui veut dire "unité", "monade", et par extension "organisme unicellulaire" ; ainsi le nom entier veut dire "fausse monade". Le nom d'espèce, umsongensis, se réfère à la région d'Umsong en Corée où la bactérie a été découverte en premier lieu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Pseudomonas provient de l'adjectif grec pseudês qui veut dire "faux" et du nom féminin grec monas qui veut dire "unité", "monade", et par extension "organisme unicellulaire" ; ainsi le nom entier veut dire "fausse monade". Le nom d'espèce, umsongensis, se réfère à la région d'Umsong en Corée où la bactérie a été découverte en premier lieu.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Morphologie et physiologie[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Pseudomonas umsongensis ont une forme de bâtonnet de proportions d'environ 1 
         ×
